--- a/PricerAndQutation/OptionPricer_v2_template.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="offer_van combo" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="203">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,602 +141,600 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>交易方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金卖出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期权标的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深万智富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期权定价_VAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期权定价_SF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>RB1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信寰球</t>
+  </si>
+  <si>
+    <t>WM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中投期货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲出价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">敲出价(adj) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲出收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cuo</t>
+  </si>
+  <si>
+    <t>1M Vol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3M Vol </t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>名称2</t>
+  </si>
+  <si>
+    <t>bid1m</t>
+  </si>
+  <si>
+    <t>ask1m</t>
+  </si>
+  <si>
+    <t>bid3m</t>
+  </si>
+  <si>
+    <t>ask3m</t>
+  </si>
+  <si>
+    <t>zn</t>
+  </si>
+  <si>
+    <t>锌</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>铝</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>锡</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>镍</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>铜</t>
+  </si>
+  <si>
+    <t>jm</t>
+  </si>
+  <si>
+    <t>焦煤</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>焦炭</t>
+  </si>
+  <si>
+    <t>hc</t>
+  </si>
+  <si>
+    <t>热轧</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>铁矿石</t>
+  </si>
+  <si>
+    <t>rb</t>
+  </si>
+  <si>
+    <t>螺纹钢</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>黄金</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>白银</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>玉米淀粉</t>
+  </si>
+  <si>
+    <t>jd</t>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>棕榈油</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>菜油</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>菜粕</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>郑棉</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>豆一</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>豆油</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>豆粕</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>白糖</t>
+  </si>
+  <si>
+    <t>zc</t>
+  </si>
+  <si>
+    <t>动力煤</t>
+  </si>
+  <si>
+    <t>bu</t>
+  </si>
+  <si>
+    <t>沥青</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>甲醇</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>聚丙烯</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>塑料</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>玻璃</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>橡胶</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>PTA</t>
+  </si>
+  <si>
+    <t>成交回报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文版 Temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English Version Temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交回报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易日：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trade Date:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买方：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seller:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖方:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buyer:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权利金总额（元）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option Type:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看跌期权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commodity:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期日:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract Month:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初价格:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantity(t):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行权价:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strike:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权利金（每吨）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标的:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb1801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premium:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易量（吨）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expiration Date:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算货币:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real Trades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金买入</t>
+  </si>
+  <si>
+    <t>1st virsion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 add combo model; 2 modify markup algos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期权报价表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期权标的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期权种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入场价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天数(y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加点(绝对值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易方向</t>
+  </si>
+  <si>
+    <t>期权标的</t>
+  </si>
+  <si>
+    <t>期权种类</t>
+  </si>
+  <si>
+    <t>入场价</t>
+  </si>
+  <si>
+    <t>执行价1|执行价2</t>
+  </si>
+  <si>
+    <t>交易日</t>
+  </si>
+  <si>
+    <t>到期日</t>
+  </si>
+  <si>
+    <t>天数</t>
+  </si>
+  <si>
+    <t>天数(y)</t>
+  </si>
+  <si>
+    <t>Carry</t>
+  </si>
+  <si>
+    <t>波动率</t>
+  </si>
+  <si>
+    <t>成本价</t>
+  </si>
+  <si>
+    <t>加点(bp)</t>
+  </si>
+  <si>
+    <t>加点(绝对值)</t>
+  </si>
+  <si>
+    <t>报价</t>
+  </si>
+  <si>
+    <t>RB1805</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行权价1:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行权价2:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文版 Temp 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English Version Temp 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strike 1:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strike 2:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厦门利青弘</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp1</t>
+  </si>
+  <si>
     <t>Temp2(per)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temp1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中金卖出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期权标的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深万智富</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中金公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期权定价_VAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期权定价_SF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>RB1805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信寰球</t>
-  </si>
-  <si>
-    <t>WM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中投期货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敲出价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">敲出价(adj) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敲出收益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cuo</t>
-  </si>
-  <si>
-    <t>1M Vol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3M Vol </t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>名称2</t>
-  </si>
-  <si>
-    <t>bid1m</t>
-  </si>
-  <si>
-    <t>ask1m</t>
-  </si>
-  <si>
-    <t>bid3m</t>
-  </si>
-  <si>
-    <t>ask3m</t>
-  </si>
-  <si>
-    <t>zn</t>
-  </si>
-  <si>
-    <t>锌</t>
-  </si>
-  <si>
-    <t>al</t>
-  </si>
-  <si>
-    <t>铝</t>
-  </si>
-  <si>
-    <t>sn</t>
-  </si>
-  <si>
-    <t>锡</t>
-  </si>
-  <si>
-    <t>ni</t>
-  </si>
-  <si>
-    <t>镍</t>
-  </si>
-  <si>
-    <t>cu</t>
-  </si>
-  <si>
-    <t>铜</t>
-  </si>
-  <si>
-    <t>jm</t>
-  </si>
-  <si>
-    <t>焦煤</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>焦炭</t>
-  </si>
-  <si>
-    <t>hc</t>
-  </si>
-  <si>
-    <t>热轧</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>铁矿石</t>
-  </si>
-  <si>
-    <t>rb</t>
-  </si>
-  <si>
-    <t>螺纹钢</t>
-  </si>
-  <si>
-    <t>au</t>
-  </si>
-  <si>
-    <t>黄金</t>
-  </si>
-  <si>
-    <t>ag</t>
-  </si>
-  <si>
-    <t>白银</t>
-  </si>
-  <si>
-    <t>cs</t>
-  </si>
-  <si>
-    <t>玉米淀粉</t>
-  </si>
-  <si>
-    <t>jd</t>
-  </si>
-  <si>
-    <t>鸡蛋</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>棕榈油</t>
-  </si>
-  <si>
-    <t>ro</t>
-  </si>
-  <si>
-    <t>菜油</t>
-  </si>
-  <si>
-    <t>rm</t>
-  </si>
-  <si>
-    <t>菜粕</t>
-  </si>
-  <si>
-    <t>cf</t>
-  </si>
-  <si>
-    <t>郑棉</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>豆一</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>豆油</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>豆粕</t>
-  </si>
-  <si>
-    <t>玉米</t>
-  </si>
-  <si>
-    <t>sr</t>
-  </si>
-  <si>
-    <t>白糖</t>
-  </si>
-  <si>
-    <t>zc</t>
-  </si>
-  <si>
-    <t>动力煤</t>
-  </si>
-  <si>
-    <t>bu</t>
-  </si>
-  <si>
-    <t>沥青</t>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
-    <t>甲醇</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>聚丙烯</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>塑料</t>
-  </si>
-  <si>
-    <t>fg</t>
-  </si>
-  <si>
-    <t>玻璃</t>
-  </si>
-  <si>
-    <t>ru</t>
-  </si>
-  <si>
-    <t>橡胶</t>
-  </si>
-  <si>
-    <t>ta</t>
-  </si>
-  <si>
-    <t>PTA</t>
-  </si>
-  <si>
-    <t>成交回报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文版 Temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>English Version Temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交回报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易日：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trade Date:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买方：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seller:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖方:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buyer:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权利金总额（元）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Option Type:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看跌期权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commodity:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到期日:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract Month:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期初价格:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quantity(t):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行权价:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strike:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权利金（每吨）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标的:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb1801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Premium:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易量（吨）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expiration Date:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算货币:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人民币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Currency:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Real Trades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Leg1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Leg2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Combo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中金买入</t>
-  </si>
-  <si>
-    <t>1st virsion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cuo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 add combo model; 2 modify markup algos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期权报价表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期权标的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期权种类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入场价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天数(y)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波动率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加点(绝对值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易方向</t>
-  </si>
-  <si>
-    <t>期权标的</t>
-  </si>
-  <si>
-    <t>期权种类</t>
-  </si>
-  <si>
-    <t>入场价</t>
-  </si>
-  <si>
-    <t>执行价1|执行价2</t>
-  </si>
-  <si>
-    <t>交易日</t>
-  </si>
-  <si>
-    <t>到期日</t>
-  </si>
-  <si>
-    <t>天数</t>
-  </si>
-  <si>
-    <t>天数(y)</t>
-  </si>
-  <si>
-    <t>Carry</t>
-  </si>
-  <si>
-    <t>波动率</t>
-  </si>
-  <si>
-    <t>成本价</t>
-  </si>
-  <si>
-    <t>加点(bp)</t>
-  </si>
-  <si>
-    <t>加点(绝对值)</t>
-  </si>
-  <si>
-    <t>报价</t>
-  </si>
-  <si>
-    <t>RB1805</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Example</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Example</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temp2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行权价1:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行权价2:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文版 Temp 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>English Version Temp 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strike 1:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strike 2:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -749,7 +747,7 @@
     <numFmt numFmtId="178" formatCode="###,###,##0"/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,6 +897,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1090,7 +1095,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1276,6 +1281,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="20" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1299,13 +1305,13 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>3955</v>
+        <v>4008</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
-        <tr r="G8" s="1"/>
-        <tr r="G8" s="8"/>
-        <tr r="G8" s="7"/>
+        <tr r="H8" s="1"/>
+        <tr r="H8" s="7"/>
+        <tr r="H8" s="8"/>
       </tp>
     </main>
   </volType>
@@ -1602,7 +1608,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1622,7 +1628,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
       <c r="B1" s="94" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -1647,54 +1653,52 @@
       <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="93" t="s">
-        <v>31</v>
-      </c>
+      <c r="A4" s="93"/>
       <c r="B4" s="78" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C4" s="78"/>
       <c r="D4" s="78" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F4" s="78" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="78" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I4" s="78" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="78" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K4" s="78" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L4" s="78" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M4" s="78" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N4" s="78" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="O4" s="78" t="s">
         <v>26</v>
       </c>
       <c r="P4" s="78" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="78" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1716,54 +1720,52 @@
       <c r="Q5" s="83"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="93" t="s">
-        <v>195</v>
-      </c>
+      <c r="A6" s="93"/>
       <c r="B6" s="78" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="J6" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="K6" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="L6" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="M6" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="I6" s="78" t="s">
+      <c r="N6" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="O6" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="K6" s="78" t="s">
+      <c r="P6" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="L6" s="78" t="s">
+      <c r="Q6" s="78" t="s">
         <v>185</v>
-      </c>
-      <c r="M6" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="N6" s="78" t="s">
-        <v>187</v>
-      </c>
-      <c r="O6" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="P6" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q6" s="78" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1798,7 +1800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
@@ -1812,32 +1814,32 @@
   <sheetData>
     <row r="1" spans="2:20" ht="14.25" thickBot="1">
       <c r="B1" s="106" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C1" s="106"/>
     </row>
     <row r="2" spans="2:20" ht="12" thickTop="1"/>
     <row r="3" spans="2:20" ht="12.75" thickBot="1">
       <c r="B3" s="105" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3" s="105"/>
       <c r="D3" s="105"/>
       <c r="E3" s="105"/>
       <c r="G3" s="101" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H3" s="101"/>
       <c r="I3" s="101"/>
       <c r="J3" s="101"/>
       <c r="L3" s="105" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M3" s="105"/>
       <c r="N3" s="105"/>
       <c r="O3" s="105"/>
       <c r="Q3" s="101" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="R3" s="101"/>
       <c r="S3" s="101"/>
@@ -1845,25 +1847,25 @@
     </row>
     <row r="4" spans="2:20" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="102" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" s="102"/>
       <c r="D4" s="102"/>
       <c r="E4" s="102"/>
       <c r="G4" s="102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="102"/>
       <c r="I4" s="102"/>
       <c r="J4" s="102"/>
       <c r="L4" s="102" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M4" s="102"/>
       <c r="N4" s="102"/>
       <c r="O4" s="102"/>
       <c r="Q4" s="102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R4" s="102"/>
       <c r="S4" s="102"/>
@@ -1871,25 +1873,25 @@
     </row>
     <row r="5" spans="2:20" ht="14.25" thickTop="1">
       <c r="B5" s="46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="47"/>
       <c r="D5" s="48"/>
       <c r="E5" s="49"/>
       <c r="G5" s="98" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H5" s="98"/>
       <c r="I5" s="48"/>
       <c r="J5" s="49"/>
       <c r="L5" s="46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M5" s="47"/>
       <c r="N5" s="48"/>
       <c r="O5" s="49"/>
       <c r="Q5" s="98" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R5" s="98"/>
       <c r="S5" s="48"/>
@@ -1897,29 +1899,29 @@
     </row>
     <row r="6" spans="2:20" ht="13.5">
       <c r="B6" s="103" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="103"/>
       <c r="D6" s="99" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E6" s="100"/>
       <c r="G6" s="98" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H6" s="98"/>
       <c r="I6" s="99"/>
       <c r="J6" s="100"/>
       <c r="L6" s="103" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M6" s="103"/>
       <c r="N6" s="99" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O6" s="100"/>
       <c r="Q6" s="98" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R6" s="98"/>
       <c r="S6" s="99"/>
@@ -1927,29 +1929,29 @@
     </row>
     <row r="7" spans="2:20" ht="13.5">
       <c r="B7" s="103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" s="103"/>
       <c r="D7" s="99" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" s="100"/>
       <c r="G7" s="98" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H7" s="98"/>
       <c r="I7" s="99"/>
       <c r="J7" s="100"/>
       <c r="L7" s="103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M7" s="103"/>
       <c r="N7" s="99" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O7" s="100"/>
       <c r="Q7" s="98" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R7" s="98"/>
       <c r="S7" s="99"/>
@@ -1957,7 +1959,7 @@
     </row>
     <row r="8" spans="2:20" ht="13.5">
       <c r="B8" s="103" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="103"/>
       <c r="D8" s="99">
@@ -1966,13 +1968,13 @@
       </c>
       <c r="E8" s="100"/>
       <c r="G8" s="98" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H8" s="98"/>
       <c r="I8" s="99"/>
       <c r="J8" s="100"/>
       <c r="L8" s="103" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M8" s="103"/>
       <c r="N8" s="99">
@@ -1981,7 +1983,7 @@
       </c>
       <c r="O8" s="100"/>
       <c r="Q8" s="98" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R8" s="98"/>
       <c r="S8" s="99"/>
@@ -1989,29 +1991,29 @@
     </row>
     <row r="9" spans="2:20" ht="13.5">
       <c r="B9" s="103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" s="103"/>
       <c r="D9" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E9" s="100"/>
       <c r="G9" s="98" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H9" s="98"/>
       <c r="I9" s="99"/>
       <c r="J9" s="100"/>
       <c r="L9" s="103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M9" s="103"/>
       <c r="N9" s="99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O9" s="100"/>
       <c r="Q9" s="98" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R9" s="98"/>
       <c r="S9" s="99"/>
@@ -2019,7 +2021,7 @@
     </row>
     <row r="10" spans="2:20" ht="13.5">
       <c r="B10" s="103" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" s="103"/>
       <c r="D10" s="99">
@@ -2027,13 +2029,13 @@
       </c>
       <c r="E10" s="100"/>
       <c r="G10" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="99"/>
       <c r="J10" s="100"/>
       <c r="L10" s="103" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M10" s="103"/>
       <c r="N10" s="99">
@@ -2041,7 +2043,7 @@
       </c>
       <c r="O10" s="100"/>
       <c r="Q10" s="91" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="R10" s="91"/>
       <c r="S10" s="99"/>
@@ -2049,7 +2051,7 @@
     </row>
     <row r="11" spans="2:20" ht="13.5">
       <c r="B11" s="103" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="103"/>
       <c r="D11" s="99">
@@ -2057,13 +2059,13 @@
       </c>
       <c r="E11" s="100"/>
       <c r="G11" s="98" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H11" s="98"/>
       <c r="I11" s="99"/>
       <c r="J11" s="100"/>
       <c r="L11" s="103" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M11" s="103"/>
       <c r="N11" s="99">
@@ -2071,7 +2073,7 @@
       </c>
       <c r="O11" s="100"/>
       <c r="Q11" s="98" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R11" s="98"/>
       <c r="S11" s="99"/>
@@ -2079,7 +2081,7 @@
     </row>
     <row r="12" spans="2:20" ht="13.5">
       <c r="B12" s="103" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C12" s="103"/>
       <c r="D12" s="99">
@@ -2087,13 +2089,13 @@
       </c>
       <c r="E12" s="100"/>
       <c r="G12" s="98" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H12" s="98"/>
       <c r="I12" s="99"/>
       <c r="J12" s="100"/>
       <c r="L12" s="103" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M12" s="103"/>
       <c r="N12" s="99">
@@ -2101,7 +2103,7 @@
       </c>
       <c r="O12" s="100"/>
       <c r="Q12" s="98" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="R12" s="98"/>
       <c r="S12" s="99"/>
@@ -2109,7 +2111,7 @@
     </row>
     <row r="13" spans="2:20" ht="13.5">
       <c r="B13" s="103" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" s="103"/>
       <c r="D13" s="99">
@@ -2117,13 +2119,13 @@
       </c>
       <c r="E13" s="100"/>
       <c r="G13" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H13" s="98"/>
       <c r="I13" s="99"/>
       <c r="J13" s="100"/>
       <c r="L13" s="103" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M13" s="103"/>
       <c r="N13" s="99">
@@ -2131,7 +2133,7 @@
       </c>
       <c r="O13" s="100"/>
       <c r="Q13" s="98" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="R13" s="98"/>
       <c r="S13" s="99"/>
@@ -2139,21 +2141,21 @@
     </row>
     <row r="14" spans="2:20" ht="13.5">
       <c r="B14" s="103" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C14" s="103"/>
       <c r="D14" s="99" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E14" s="100"/>
       <c r="G14" s="98" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H14" s="98"/>
       <c r="I14" s="44"/>
       <c r="J14" s="45"/>
       <c r="L14" s="103" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M14" s="103"/>
       <c r="N14" s="99">
@@ -2161,7 +2163,7 @@
       </c>
       <c r="O14" s="100"/>
       <c r="Q14" s="98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R14" s="98"/>
       <c r="S14" s="99"/>
@@ -2169,7 +2171,7 @@
     </row>
     <row r="15" spans="2:20" ht="13.5">
       <c r="B15" s="103" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C15" s="103"/>
       <c r="D15" s="99">
@@ -2177,21 +2179,21 @@
       </c>
       <c r="E15" s="100"/>
       <c r="G15" s="98" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H15" s="98"/>
       <c r="I15" s="99"/>
       <c r="J15" s="100"/>
       <c r="L15" s="103" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M15" s="103"/>
       <c r="N15" s="99" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O15" s="100"/>
       <c r="Q15" s="98" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R15" s="98"/>
       <c r="S15" s="89"/>
@@ -2199,21 +2201,21 @@
     </row>
     <row r="16" spans="2:20" ht="14.25" thickBot="1">
       <c r="B16" s="104" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C16" s="104"/>
       <c r="D16" s="96" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E16" s="97"/>
       <c r="G16" s="95" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H16" s="95"/>
       <c r="I16" s="96"/>
       <c r="J16" s="97"/>
       <c r="L16" s="103" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M16" s="103"/>
       <c r="N16" s="99">
@@ -2221,7 +2223,7 @@
       </c>
       <c r="O16" s="100"/>
       <c r="Q16" s="98" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R16" s="98"/>
       <c r="S16" s="99"/>
@@ -2229,15 +2231,15 @@
     </row>
     <row r="17" spans="2:20" ht="15" thickTop="1" thickBot="1">
       <c r="L17" s="104" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M17" s="104"/>
       <c r="N17" s="96" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O17" s="97"/>
       <c r="Q17" s="95" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R17" s="95"/>
       <c r="S17" s="96"/>
@@ -2246,7 +2248,7 @@
     <row r="18" spans="2:20" ht="12" thickTop="1"/>
     <row r="19" spans="2:20" ht="13.5">
       <c r="B19" s="41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2360,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2384,7 +2386,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="B1" s="106" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="106"/>
     </row>
@@ -2438,907 +2440,907 @@
     </row>
     <row r="7" spans="1:22" ht="12.75" thickTop="1" thickBot="1">
       <c r="B7" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="I7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="J7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="K7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="L7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="M7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="N7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="P7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="Q7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="R7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="S7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="T7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="18" t="s">
+      <c r="V7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="18" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="8" spans="1:22" ht="12" thickTop="1">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="92"/>
+      <c r="B8" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="19">
-        <f>IF(C8="中金买入",1,-1)</f>
+      <c r="E8" s="19">
+        <f>IF(D8="中金买入",1,-1)</f>
         <v>-1</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="20">
-        <f>RTD("wdf.rtq",,E8,"LastPrice")</f>
-        <v>3955</v>
-      </c>
-      <c r="H8" s="19">
+      <c r="H8" s="20">
+        <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
+        <v>4008</v>
+      </c>
+      <c r="I8" s="19">
         <v>3800</v>
       </c>
-      <c r="I8" s="21">
+      <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43068</v>
-      </c>
-      <c r="J8" s="21">
-        <f ca="1">I8+K8</f>
-        <v>43098</v>
-      </c>
-      <c r="K8" s="19">
+        <v>43069</v>
+      </c>
+      <c r="K8" s="21">
+        <f ca="1">J8+L8</f>
+        <v>43099</v>
+      </c>
+      <c r="L8" s="19">
         <v>30</v>
       </c>
-      <c r="L8" s="22">
-        <f>K8/365</f>
+      <c r="M8" s="22">
+        <f>L8/365</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="M8" s="22">
+      <c r="N8" s="22">
         <v>0</v>
       </c>
-      <c r="N8" s="23">
+      <c r="O8" s="23">
         <v>0.3</v>
       </c>
-      <c r="O8" s="24">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$F8,$G8,$H8,$L8,$C$3,$M8,$N8,$C$4)*D8</f>
-        <v>-224.23979306430056</v>
-      </c>
-      <c r="P8" s="25">
+      <c r="P8" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
+        <v>-262.37229572005117</v>
+      </c>
+      <c r="Q8" s="25">
         <v>80</v>
       </c>
-      <c r="Q8" s="24">
-        <f>P8/10000*L8*G8</f>
-        <v>2.6005479452054794</v>
-      </c>
       <c r="R8" s="24">
-        <f>IF(O8&lt;=0,ABS(O8)+Q8,O8-Q8)</f>
-        <v>226.84034100950603</v>
-      </c>
-      <c r="S8" s="26">
-        <f>R8/G8</f>
-        <v>5.7355332745766381E-2</v>
-      </c>
-      <c r="T8" s="24">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$F8,$G8,$H8,$L8,$C$3,$M8,$N8,$C$4)*D8</f>
-        <v>-0.69307781013776548</v>
+        <f>Q8/10000*M8*H8</f>
+        <v>2.6353972602739728</v>
+      </c>
+      <c r="S8" s="24">
+        <f>IF(P8&lt;=0,ABS(P8)+R8,P8-R8)</f>
+        <v>265.00769298032515</v>
+      </c>
+      <c r="T8" s="26">
+        <f>S8/H8</f>
+        <v>6.6119683877326627E-2</v>
       </c>
       <c r="U8" s="24">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$F8,$G8,$H8,$L8,$C$3,$M8,$N8,$C$4)*D8</f>
-        <v>-3.9692192480952144</v>
-      </c>
-      <c r="V8" s="24"/>
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
+        <v>-0.74498645608400693</v>
+      </c>
+      <c r="V8" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
+        <v>-3.6738039669985483</v>
+      </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="92"/>
+      <c r="B9" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="10">
+        <f>IF(D9="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="11">
+        <v>100</v>
+      </c>
+      <c r="I9" s="10">
+        <v>100</v>
+      </c>
+      <c r="J9" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43069</v>
+      </c>
+      <c r="K9" s="8">
+        <f ca="1">J9+L9</f>
+        <v>43099</v>
+      </c>
+      <c r="L9" s="10">
         <v>30</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="10">
-        <f>IF(C9="中金买入",1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="11">
-        <v>100</v>
-      </c>
-      <c r="H9" s="10">
-        <v>100</v>
-      </c>
-      <c r="I9" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43068</v>
-      </c>
-      <c r="J9" s="8">
-        <f ca="1">I9+K9</f>
-        <v>43098</v>
-      </c>
-      <c r="K9" s="10">
-        <v>30</v>
-      </c>
-      <c r="L9" s="12">
-        <f>K9/365</f>
+      <c r="M9" s="12">
+        <f>L9/365</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="M9" s="12">
+      <c r="N9" s="12">
         <v>0</v>
       </c>
-      <c r="N9" s="9">
+      <c r="O9" s="9">
         <v>0.3</v>
       </c>
-      <c r="O9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$F9,$G9,$H9,$L9,$C$3,$M9,$N9,$C$4)*D9</f>
+      <c r="P9" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$G9,$H9,$I9,$M9,$C$3,$N9,$O9,$C$4)*E9</f>
         <v>3.4245046917201378</v>
       </c>
-      <c r="P9" s="15">
+      <c r="Q9" s="15">
         <v>80</v>
       </c>
-      <c r="Q9" s="13">
-        <f>P9/10000*L9*G9</f>
+      <c r="R9" s="13">
+        <f>Q9/10000*M9*H9</f>
         <v>6.5753424657534254E-2</v>
       </c>
-      <c r="R9" s="13">
-        <f>IF(O9&lt;=0,ABS(O9)+Q9,O9-Q9)</f>
+      <c r="S9" s="13">
+        <f>IF(P9&lt;=0,ABS(P9)+R9,P9-R9)</f>
         <v>3.3587512670626034</v>
       </c>
-      <c r="S9" s="14">
-        <f>R9/G9</f>
+      <c r="T9" s="14">
+        <f>S9/H9</f>
         <v>3.3587512670626034E-2</v>
       </c>
-      <c r="T9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$F9,$G9,$H9,$L9,$C$3,$M9,$N9,$C$4)*D9</f>
+      <c r="U9" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$G9,$H9,$I9,$M9,$C$3,$N9,$O9,$C$4)*E9</f>
         <v>0.51630126926376363</v>
       </c>
-      <c r="U9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$F9,$G9,$H9,$L9,$C$3,$M9,$N9,$C$4)*D9</f>
+      <c r="V9" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$G9,$H9,$I9,$M9,$C$3,$N9,$O9,$C$4)*E9</f>
         <v>0.11407976820886745</v>
       </c>
-      <c r="V9" s="13"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="B10" s="10"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="12"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="13"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="15"/>
       <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="14"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="B11" s="10"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="12"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="13"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="15"/>
       <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="14"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="10"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="8"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="12"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="13"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="15"/>
       <c r="R12" s="13"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="14"/>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="10"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="8"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="12"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="13"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="15"/>
       <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="14"/>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="B14" s="10"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="8"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="12"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="13"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="15"/>
       <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="14"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="B15" s="10"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="12"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="13"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="15"/>
       <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="14"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="B16" s="10"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="8"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="12"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="13"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="15"/>
       <c r="R16" s="13"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="14"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="10"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="12"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="13"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="15"/>
       <c r="R17" s="13"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="14"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="10"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="12"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="13"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="15"/>
       <c r="R18" s="13"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="14"/>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="10"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="8"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="12"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="13"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="15"/>
       <c r="R19" s="13"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="14"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="10"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="8"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="12"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="13"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="15"/>
       <c r="R20" s="13"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="14"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
     </row>
     <row r="21" spans="2:22">
-      <c r="B21" s="10"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="8"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="12"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="13"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="15"/>
       <c r="R21" s="13"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="14"/>
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="10"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="8"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="12"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="13"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="15"/>
       <c r="R22" s="13"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="14"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="10"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="8"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="12"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="13"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="15"/>
       <c r="R23" s="13"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="14"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="10"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="8"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="12"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="13"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="15"/>
       <c r="R24" s="13"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="14"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="10"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="8"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="12"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="13"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="15"/>
       <c r="R25" s="13"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="14"/>
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="10"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="8"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="12"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="13"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="15"/>
       <c r="R26" s="13"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="14"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
     </row>
     <row r="27" spans="2:22">
-      <c r="B27" s="10"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="8"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="10"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="12"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="10"/>
       <c r="M27" s="12"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="13"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="15"/>
       <c r="R27" s="13"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="14"/>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
     </row>
     <row r="28" spans="2:22">
-      <c r="B28" s="10"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="8"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="12"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="13"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="15"/>
       <c r="R28" s="13"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="14"/>
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
     </row>
     <row r="29" spans="2:22">
-      <c r="B29" s="10"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="8"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="12"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="12"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="13"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="15"/>
       <c r="R29" s="13"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="14"/>
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
     </row>
     <row r="30" spans="2:22">
-      <c r="B30" s="10"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="8"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="12"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="13"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="15"/>
       <c r="R30" s="13"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="14"/>
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="10"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="8"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="12"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="13"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="15"/>
       <c r="R31" s="13"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="14"/>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="10"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="8"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="12"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="10"/>
       <c r="M32" s="12"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="13"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="15"/>
       <c r="R32" s="13"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="14"/>
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
     </row>
     <row r="33" spans="2:22">
-      <c r="B33" s="10"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="8"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="12"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="10"/>
       <c r="M33" s="12"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="13"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="15"/>
       <c r="R33" s="13"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="14"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
     </row>
     <row r="34" spans="2:22">
-      <c r="B34" s="10"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="8"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="10"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="12"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="10"/>
       <c r="M34" s="12"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="13"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="15"/>
       <c r="R34" s="13"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="14"/>
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
     </row>
     <row r="35" spans="2:22">
-      <c r="B35" s="10"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="8"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="12"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="10"/>
       <c r="M35" s="12"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="13"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="15"/>
       <c r="R35" s="13"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="14"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
     </row>
     <row r="36" spans="2:22">
-      <c r="B36" s="10"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="8"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="10"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="12"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="10"/>
       <c r="M36" s="12"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="13"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="15"/>
       <c r="R36" s="13"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="14"/>
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
     </row>
     <row r="37" spans="2:22">
-      <c r="B37" s="10"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="8"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="12"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="10"/>
       <c r="M37" s="12"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="13"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="15"/>
       <c r="R37" s="13"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="14"/>
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
     </row>
     <row r="38" spans="2:22">
-      <c r="B38" s="10"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="8"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="10"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="12"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="12"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="13"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="15"/>
       <c r="R38" s="13"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="14"/>
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
     </row>
     <row r="39" spans="2:22">
-      <c r="B39" s="10"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="8"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="10"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="12"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="10"/>
       <c r="M39" s="12"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="13"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="15"/>
       <c r="R39" s="13"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="14"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
     </row>
@@ -3355,13 +3357,13 @@
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C39</xm:sqref>
+          <xm:sqref>D8:D39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>F8:F39</xm:sqref>
+          <xm:sqref>G8:G39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3373,7 +3375,7 @@
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:B39</xm:sqref>
+          <xm:sqref>C8:C39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3385,8 +3387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3409,7 +3411,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="B1" s="107" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="106"/>
     </row>
@@ -3463,939 +3465,939 @@
     </row>
     <row r="7" spans="1:22" ht="12.75" thickTop="1" thickBot="1">
       <c r="B7" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="D7" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="54" t="s">
+      <c r="G7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="H7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="I7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="J7" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="K7" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="L7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="M7" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="54" t="s">
-        <v>49</v>
-      </c>
       <c r="N7" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="54" t="s">
+      <c r="P7" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="54" t="s">
+      <c r="Q7" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="54" t="s">
+      <c r="R7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="54" t="s">
+      <c r="S7" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="53" t="s">
-        <v>35</v>
-      </c>
       <c r="T7" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="53" t="s">
+      <c r="V7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="53" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="8" spans="1:22" ht="12" thickTop="1">
-      <c r="A8" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>192</v>
+      <c r="A8" s="92"/>
+      <c r="B8" s="60" t="s">
+        <v>200</v>
       </c>
       <c r="C8" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="55">
-        <f>IF(C8="中金买入",1,-1)</f>
+      <c r="E8" s="55">
+        <f>IF(D8="中金买入",1,-1)</f>
         <v>-1</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>191</v>
-      </c>
       <c r="F8" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="56">
+        <v>186</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="56">
         <v>100</v>
       </c>
-      <c r="H8" s="55">
+      <c r="I8" s="55">
         <v>100</v>
       </c>
-      <c r="I8" s="57">
+      <c r="J8" s="57">
         <f ca="1">TODAY()</f>
-        <v>43068</v>
-      </c>
-      <c r="J8" s="57">
-        <f ca="1">I8+K8</f>
-        <v>43098</v>
-      </c>
-      <c r="K8" s="55">
+        <v>43069</v>
+      </c>
+      <c r="K8" s="57">
+        <f ca="1">J8+L8</f>
+        <v>43099</v>
+      </c>
+      <c r="L8" s="55">
         <v>30</v>
       </c>
-      <c r="L8" s="58">
-        <f>K8/365</f>
+      <c r="M8" s="58">
+        <f>L8/365</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="M8" s="58">
+      <c r="N8" s="58">
         <v>0</v>
       </c>
-      <c r="N8" s="59">
+      <c r="O8" s="59">
         <v>0.32</v>
       </c>
-      <c r="O8" s="60">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$F8,$G8,$H8,$L8,$C$3,$M8,$N8,$C$4)*D8</f>
+      <c r="P8" s="60">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
         <v>-3.6526499295562971</v>
       </c>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60">
-        <f>O8+Q8</f>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60">
+        <f>P8+R8</f>
         <v>-3.6526499295562971</v>
       </c>
-      <c r="S8" s="62"/>
-      <c r="T8" s="60">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$F8,$G8,$H8,$L8,$C$3,$M8,$N8,$C$4)*D8</f>
+      <c r="T8" s="62"/>
+      <c r="U8" s="60">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
         <v>-0.51744199617651532</v>
       </c>
-      <c r="U8" s="60">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$F8,$G8,$H8,$L8,$C$3,$M8,$N8,$C$4)*D8</f>
+      <c r="V8" s="60">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
         <v>-0.11406523569462124</v>
       </c>
-      <c r="V8" s="60"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="92" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>192</v>
+      <c r="A9" s="92"/>
+      <c r="B9" s="68" t="s">
+        <v>201</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="63">
-        <f>IF(C9="中金买入",1,-1)</f>
+        <v>187</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="63">
+        <f>IF(D9="中金买入",1,-1)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="63" t="s">
-        <v>191</v>
-      </c>
       <c r="F9" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="64">
+        <v>186</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="64">
         <v>100</v>
       </c>
-      <c r="H9" s="63">
+      <c r="I9" s="63">
         <v>100</v>
       </c>
-      <c r="I9" s="65">
-        <f t="shared" ref="I9:K10" ca="1" si="0">I8</f>
-        <v>43068</v>
-      </c>
       <c r="J9" s="65">
+        <f t="shared" ref="J9:L10" ca="1" si="0">J8</f>
+        <v>43069</v>
+      </c>
+      <c r="K9" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>43098</v>
-      </c>
-      <c r="K9" s="63">
+        <v>43099</v>
+      </c>
+      <c r="L9" s="63">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L9" s="66">
-        <f>K9/365</f>
+      <c r="M9" s="66">
+        <f>L9/365</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="M9" s="66">
+      <c r="N9" s="66">
         <v>0</v>
       </c>
-      <c r="N9" s="67">
+      <c r="O9" s="67">
         <v>0.3</v>
       </c>
-      <c r="O9" s="68">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$F9,$G9,$H9,$L9,$C$3,$M9,$N9,$C$4)*D9</f>
+      <c r="P9" s="68">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$G9,$H9,$I9,$M9,$C$3,$N9,$O9,$C$4)*E9</f>
         <v>3.4245046917201378</v>
       </c>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68">
-        <f>O9+Q9</f>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68">
+        <f>P9+R9</f>
         <v>3.4245046917201378</v>
       </c>
-      <c r="S9" s="70"/>
-      <c r="T9" s="68">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$F9,$G9,$H9,$L9,$C$3,$M9,$N9,$C$4)*D9</f>
+      <c r="T9" s="70"/>
+      <c r="U9" s="68">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$G9,$H9,$I9,$M9,$C$3,$N9,$O9,$C$4)*E9</f>
         <v>0.51630126926376363</v>
       </c>
-      <c r="U9" s="68">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$F9,$G9,$H9,$L9,$C$3,$M9,$N9,$C$4)*D9</f>
+      <c r="V9" s="68">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$G9,$H9,$I9,$M9,$C$3,$N9,$O9,$C$4)*E9</f>
         <v>0.11407976820886745</v>
       </c>
-      <c r="V9" s="68"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>192</v>
+      <c r="A10" s="92"/>
+      <c r="B10" s="75" t="s">
+        <v>202</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71" t="str">
-        <f>E9</f>
+        <v>187</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71" t="str">
+        <f>F9</f>
         <v>RB1805</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72">
-        <f>G9</f>
+      <c r="G10" s="71"/>
+      <c r="H10" s="72">
+        <f>H9</f>
         <v>100</v>
       </c>
-      <c r="H10" s="71" t="str">
-        <f>H8 &amp; "|" &amp; H9</f>
+      <c r="I10" s="71" t="str">
+        <f>I8 &amp; "|" &amp; I9</f>
         <v>100|100</v>
-      </c>
-      <c r="I10" s="73">
-        <f t="shared" ca="1" si="0"/>
-        <v>43068</v>
       </c>
       <c r="J10" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43098</v>
-      </c>
-      <c r="K10" s="71">
+        <v>43069</v>
+      </c>
+      <c r="K10" s="73">
+        <f t="shared" ca="1" si="0"/>
+        <v>43099</v>
+      </c>
+      <c r="L10" s="71">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L10" s="74">
-        <f>L9</f>
+      <c r="M10" s="74">
+        <f>M9</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="75">
-        <f>O9+O8</f>
+      <c r="N10" s="74"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="75">
+        <f>P9+P8</f>
         <v>-0.22814523783615925</v>
       </c>
-      <c r="P10" s="71">
+      <c r="Q10" s="71">
         <v>80</v>
       </c>
-      <c r="Q10" s="75">
-        <f>P10/10000*L10*G10</f>
+      <c r="R10" s="75">
+        <f>Q10/10000*M10*H10</f>
         <v>6.5753424657534254E-2</v>
       </c>
-      <c r="R10" s="75">
-        <f>IF(O10&lt;=0,ABS(O10)+Q10,O10-Q10)</f>
+      <c r="S10" s="75">
+        <f>IF(P10&lt;=0,ABS(P10)+R10,P10-R10)</f>
         <v>0.29389866249369351</v>
       </c>
-      <c r="S10" s="76">
-        <f>R10/G10</f>
+      <c r="T10" s="76">
+        <f>S10/H10</f>
         <v>2.9389866249369349E-3</v>
       </c>
-      <c r="T10" s="76">
-        <f t="shared" ref="T10:U10" si="1">T9+T8</f>
+      <c r="U10" s="76">
+        <f t="shared" ref="U10:V10" si="1">U9+U8</f>
         <v>-1.1407269127516884E-3</v>
       </c>
-      <c r="U10" s="76">
+      <c r="V10" s="76">
         <f t="shared" si="1"/>
         <v>1.4532514246212713E-5</v>
       </c>
-      <c r="V10" s="75"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="B11" s="63"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="63"/>
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
       <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="65"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="63"/>
       <c r="J11" s="65"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="66"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="63"/>
       <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="68"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="69"/>
       <c r="R11" s="68"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="70"/>
       <c r="U11" s="68"/>
       <c r="V11" s="68"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="63"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="63"/>
       <c r="D12" s="63"/>
       <c r="E12" s="63"/>
       <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="65"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="65"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="66"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="63"/>
       <c r="M12" s="66"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="68"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="69"/>
       <c r="R12" s="68"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="70"/>
       <c r="U12" s="68"/>
       <c r="V12" s="68"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="63"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="63"/>
       <c r="D13" s="63"/>
       <c r="E13" s="63"/>
       <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="65"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="65"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="66"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="63"/>
       <c r="M13" s="66"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="68"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="69"/>
       <c r="R13" s="68"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="70"/>
       <c r="U13" s="68"/>
       <c r="V13" s="68"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="B14" s="63"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="63"/>
       <c r="D14" s="63"/>
       <c r="E14" s="63"/>
       <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="65"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="65"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="66"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="63"/>
       <c r="M14" s="66"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="68"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="69"/>
       <c r="R14" s="68"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="70"/>
       <c r="U14" s="68"/>
       <c r="V14" s="68"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="B15" s="63"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="63"/>
       <c r="D15" s="63"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="65"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="65"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="66"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="63"/>
       <c r="M15" s="66"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="68"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="69"/>
       <c r="R15" s="68"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="70"/>
       <c r="U15" s="68"/>
       <c r="V15" s="68"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="B16" s="63"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="63"/>
       <c r="D16" s="63"/>
       <c r="E16" s="63"/>
       <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="65"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="65"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="66"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="63"/>
       <c r="M16" s="66"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="68"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="69"/>
       <c r="R16" s="68"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="70"/>
       <c r="U16" s="68"/>
       <c r="V16" s="68"/>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="63"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="63"/>
       <c r="D17" s="63"/>
       <c r="E17" s="63"/>
       <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="65"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="65"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="66"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="63"/>
       <c r="M17" s="66"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="68"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="69"/>
       <c r="R17" s="68"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="70"/>
       <c r="U17" s="68"/>
       <c r="V17" s="68"/>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="63"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="63"/>
       <c r="D18" s="63"/>
       <c r="E18" s="63"/>
       <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="65"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="65"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="66"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="63"/>
       <c r="M18" s="66"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="68"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="69"/>
       <c r="R18" s="68"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="70"/>
       <c r="U18" s="68"/>
       <c r="V18" s="68"/>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="63"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="63"/>
       <c r="D19" s="63"/>
       <c r="E19" s="63"/>
       <c r="F19" s="63"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="65"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="65"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="66"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="63"/>
       <c r="M19" s="66"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="68"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="69"/>
       <c r="R19" s="68"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="70"/>
       <c r="U19" s="68"/>
       <c r="V19" s="68"/>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="63"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="63"/>
       <c r="D20" s="63"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="65"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="65"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="66"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="63"/>
       <c r="M20" s="66"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="68"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="69"/>
       <c r="R20" s="68"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="70"/>
       <c r="U20" s="68"/>
       <c r="V20" s="68"/>
     </row>
     <row r="21" spans="2:22">
-      <c r="B21" s="63"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="63"/>
       <c r="D21" s="63"/>
       <c r="E21" s="63"/>
       <c r="F21" s="63"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="65"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="65"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="66"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="63"/>
       <c r="M21" s="66"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="68"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="69"/>
       <c r="R21" s="68"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="70"/>
       <c r="U21" s="68"/>
       <c r="V21" s="68"/>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="63"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
       <c r="E22" s="63"/>
       <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="65"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="65"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="66"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="63"/>
       <c r="M22" s="66"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="68"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="69"/>
       <c r="R22" s="68"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="70"/>
       <c r="U22" s="68"/>
       <c r="V22" s="68"/>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="63"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="63"/>
       <c r="D23" s="63"/>
       <c r="E23" s="63"/>
       <c r="F23" s="63"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="65"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="63"/>
       <c r="J23" s="65"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="66"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="63"/>
       <c r="M23" s="66"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="68"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="69"/>
       <c r="R23" s="68"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="70"/>
       <c r="U23" s="68"/>
       <c r="V23" s="68"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="63"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="63"/>
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
       <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="65"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="65"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="66"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="63"/>
       <c r="M24" s="66"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="68"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="69"/>
       <c r="R24" s="68"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="70"/>
       <c r="U24" s="68"/>
       <c r="V24" s="68"/>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="63"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="63"/>
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
       <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="65"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="63"/>
       <c r="J25" s="65"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="66"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="63"/>
       <c r="M25" s="66"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="68"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="69"/>
       <c r="R25" s="68"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="70"/>
       <c r="U25" s="68"/>
       <c r="V25" s="68"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="63"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="63"/>
       <c r="D26" s="63"/>
       <c r="E26" s="63"/>
       <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="65"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="63"/>
       <c r="J26" s="65"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="66"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="63"/>
       <c r="M26" s="66"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="68"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="69"/>
       <c r="R26" s="68"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="70"/>
       <c r="U26" s="68"/>
       <c r="V26" s="68"/>
     </row>
     <row r="27" spans="2:22">
-      <c r="B27" s="63"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="63"/>
       <c r="D27" s="63"/>
       <c r="E27" s="63"/>
       <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="65"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="63"/>
       <c r="J27" s="65"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="66"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="63"/>
       <c r="M27" s="66"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="68"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="69"/>
       <c r="R27" s="68"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="70"/>
       <c r="U27" s="68"/>
       <c r="V27" s="68"/>
     </row>
     <row r="28" spans="2:22">
-      <c r="B28" s="63"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="63"/>
       <c r="D28" s="63"/>
       <c r="E28" s="63"/>
       <c r="F28" s="63"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="65"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="63"/>
       <c r="J28" s="65"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="66"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="63"/>
       <c r="M28" s="66"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="68"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="69"/>
       <c r="R28" s="68"/>
-      <c r="S28" s="70"/>
-      <c r="T28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="70"/>
       <c r="U28" s="68"/>
       <c r="V28" s="68"/>
     </row>
     <row r="29" spans="2:22">
-      <c r="B29" s="63"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="63"/>
       <c r="D29" s="63"/>
       <c r="E29" s="63"/>
       <c r="F29" s="63"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="65"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="65"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="66"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="63"/>
       <c r="M29" s="66"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="68"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="69"/>
       <c r="R29" s="68"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="70"/>
       <c r="U29" s="68"/>
       <c r="V29" s="68"/>
     </row>
     <row r="30" spans="2:22">
-      <c r="B30" s="63"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="63"/>
       <c r="D30" s="63"/>
       <c r="E30" s="63"/>
       <c r="F30" s="63"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="65"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="63"/>
       <c r="J30" s="65"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="66"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="63"/>
       <c r="M30" s="66"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="68"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="69"/>
       <c r="R30" s="68"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="68"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="70"/>
       <c r="U30" s="68"/>
       <c r="V30" s="68"/>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="63"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="63"/>
       <c r="D31" s="63"/>
       <c r="E31" s="63"/>
       <c r="F31" s="63"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="65"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="63"/>
       <c r="J31" s="65"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="66"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="63"/>
       <c r="M31" s="66"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="68"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="69"/>
       <c r="R31" s="68"/>
-      <c r="S31" s="70"/>
-      <c r="T31" s="68"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="70"/>
       <c r="U31" s="68"/>
       <c r="V31" s="68"/>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="63"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="63"/>
       <c r="D32" s="63"/>
       <c r="E32" s="63"/>
       <c r="F32" s="63"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="65"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="63"/>
       <c r="J32" s="65"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="66"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="63"/>
       <c r="M32" s="66"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="68"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="69"/>
       <c r="R32" s="68"/>
-      <c r="S32" s="70"/>
-      <c r="T32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="70"/>
       <c r="U32" s="68"/>
       <c r="V32" s="68"/>
     </row>
     <row r="33" spans="2:22">
-      <c r="B33" s="63"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="63"/>
       <c r="D33" s="63"/>
       <c r="E33" s="63"/>
       <c r="F33" s="63"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="65"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="63"/>
       <c r="J33" s="65"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="66"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="63"/>
       <c r="M33" s="66"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="68"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="69"/>
       <c r="R33" s="68"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="70"/>
       <c r="U33" s="68"/>
       <c r="V33" s="68"/>
     </row>
     <row r="34" spans="2:22">
-      <c r="B34" s="63"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="63"/>
       <c r="D34" s="63"/>
       <c r="E34" s="63"/>
       <c r="F34" s="63"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="65"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="63"/>
       <c r="J34" s="65"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="66"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="63"/>
       <c r="M34" s="66"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="68"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="69"/>
       <c r="R34" s="68"/>
-      <c r="S34" s="70"/>
-      <c r="T34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="70"/>
       <c r="U34" s="68"/>
       <c r="V34" s="68"/>
     </row>
     <row r="35" spans="2:22">
-      <c r="B35" s="63"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="63"/>
       <c r="D35" s="63"/>
       <c r="E35" s="63"/>
       <c r="F35" s="63"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="65"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="63"/>
       <c r="J35" s="65"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="66"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="63"/>
       <c r="M35" s="66"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="68"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="69"/>
       <c r="R35" s="68"/>
-      <c r="S35" s="70"/>
-      <c r="T35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="70"/>
       <c r="U35" s="68"/>
       <c r="V35" s="68"/>
     </row>
     <row r="36" spans="2:22">
-      <c r="B36" s="63"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="63"/>
       <c r="D36" s="63"/>
       <c r="E36" s="63"/>
       <c r="F36" s="63"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="65"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="63"/>
       <c r="J36" s="65"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="66"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="63"/>
       <c r="M36" s="66"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="68"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="69"/>
       <c r="R36" s="68"/>
-      <c r="S36" s="70"/>
-      <c r="T36" s="68"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="70"/>
       <c r="U36" s="68"/>
       <c r="V36" s="68"/>
     </row>
     <row r="37" spans="2:22">
-      <c r="B37" s="63"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="63"/>
       <c r="D37" s="63"/>
       <c r="E37" s="63"/>
       <c r="F37" s="63"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="65"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="63"/>
       <c r="J37" s="65"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="66"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="63"/>
       <c r="M37" s="66"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="68"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="69"/>
       <c r="R37" s="68"/>
-      <c r="S37" s="70"/>
-      <c r="T37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="70"/>
       <c r="U37" s="68"/>
       <c r="V37" s="68"/>
     </row>
     <row r="38" spans="2:22">
-      <c r="B38" s="63"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="63"/>
       <c r="D38" s="63"/>
       <c r="E38" s="63"/>
       <c r="F38" s="63"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="65"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="63"/>
       <c r="J38" s="65"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="66"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="63"/>
       <c r="M38" s="66"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="68"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="69"/>
       <c r="R38" s="68"/>
-      <c r="S38" s="70"/>
-      <c r="T38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="70"/>
       <c r="U38" s="68"/>
       <c r="V38" s="68"/>
     </row>
     <row r="39" spans="2:22">
-      <c r="B39" s="63"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="63"/>
       <c r="D39" s="63"/>
       <c r="E39" s="63"/>
       <c r="F39" s="63"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="65"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="63"/>
       <c r="J39" s="65"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="66"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="63"/>
       <c r="M39" s="66"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="68"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="69"/>
       <c r="R39" s="68"/>
-      <c r="S39" s="70"/>
-      <c r="T39" s="68"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="70"/>
       <c r="U39" s="68"/>
       <c r="V39" s="68"/>
     </row>
@@ -4412,7 +4414,7 @@
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:B39</xm:sqref>
+          <xm:sqref>C8:C39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4424,13 +4426,13 @@
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>F8:F39</xm:sqref>
+          <xm:sqref>G8:G39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C39</xm:sqref>
+          <xm:sqref>D8:D39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4442,8 +4444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4469,7 +4471,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1">
       <c r="B1" s="106" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="106"/>
     </row>
@@ -4526,1026 +4528,1026 @@
     </row>
     <row r="7" spans="1:25" ht="12.75" thickTop="1" thickBot="1">
       <c r="B7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="I7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="J7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="M7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="R7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y7" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="12" thickTop="1">
+      <c r="A8" s="92"/>
+      <c r="B8" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="19">
+        <f>IF(D8="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="V7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="X7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y7" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="12" thickTop="1">
-      <c r="A8" s="92" t="s">
+      <c r="H8" s="20">
+        <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
+        <v>4008</v>
+      </c>
+      <c r="I8" s="19">
+        <v>3800</v>
+      </c>
+      <c r="J8" s="19">
+        <v>3890</v>
+      </c>
+      <c r="K8" s="19">
+        <f>_xll.dnetDiscreteAdjustedBarrier($H8,$J8,$R8,1/365)</f>
+        <v>3854.5749992553683</v>
+      </c>
+      <c r="L8" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="M8" s="21">
+        <f ca="1">TODAY()</f>
+        <v>43069</v>
+      </c>
+      <c r="N8" s="21">
+        <f ca="1">M8+O8</f>
+        <v>43099</v>
+      </c>
+      <c r="O8" s="19">
+        <v>30</v>
+      </c>
+      <c r="P8" s="22">
+        <f>O8/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>0</v>
+      </c>
+      <c r="R8" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="S8" s="24">
+        <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
+        <v>-80.16</v>
+      </c>
+      <c r="T8" s="25">
+        <v>80</v>
+      </c>
+      <c r="U8" s="24">
+        <f>T8/10000*P8*H8</f>
+        <v>2.6353972602739728</v>
+      </c>
+      <c r="V8" s="24">
+        <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
+        <v>82.795397260273973</v>
+      </c>
+      <c r="W8" s="26">
+        <f>V8/H8</f>
+        <v>2.0657534246575342E-2</v>
+      </c>
+      <c r="X8" s="24">
+        <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="24">
+        <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="92"/>
+      <c r="B9" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="19">
-        <f>IF(C8="中金买入",1,-1)</f>
+      <c r="E9" s="10">
+        <f>IF(D9="中金买入",1,-1)</f>
         <v>-1</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="20">
-        <f>RTD("wdf.rtq",,E8,"LastPrice")</f>
-        <v>3955</v>
-      </c>
-      <c r="H8" s="19">
-        <v>3800</v>
-      </c>
-      <c r="I8" s="19">
-        <v>3890</v>
-      </c>
-      <c r="J8" s="19">
-        <f>_xll.dnetDiscreteAdjustedBarrier($G8,$I8,$Q8,1/365)</f>
-        <v>3854.5749992553683</v>
-      </c>
-      <c r="K8" s="28">
+      <c r="F9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="11">
+        <v>100</v>
+      </c>
+      <c r="I9" s="10">
+        <v>100</v>
+      </c>
+      <c r="J9" s="10">
+        <v>108</v>
+      </c>
+      <c r="K9" s="10">
+        <f>_xll.dnetDiscreteAdjustedBarrier($H9,$J9,$R9,1/365)</f>
+        <v>108.99256080920966</v>
+      </c>
+      <c r="L9" s="29">
         <v>0.02</v>
       </c>
-      <c r="L8" s="21">
+      <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43068</v>
-      </c>
-      <c r="M8" s="21">
-        <f ca="1">L8+N8</f>
-        <v>43098</v>
-      </c>
-      <c r="N8" s="19">
+        <v>43069</v>
+      </c>
+      <c r="N9" s="8">
+        <f ca="1">M9+O9</f>
+        <v>43099</v>
+      </c>
+      <c r="O9" s="10">
         <v>30</v>
       </c>
-      <c r="O8" s="22">
-        <f>N8/365</f>
+      <c r="P9" s="12">
+        <f>O9/365</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="P8" s="22">
+      <c r="Q9" s="12">
         <v>0</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="R9" s="9">
         <v>0.3</v>
       </c>
-      <c r="R8" s="24">
-        <f>_xll.dnetStandardBarrierNGreeks("price",F8,G8,H8,J8,K8*G8,O8,$C$3,P8,Q8,$C$4)*D8</f>
-        <v>-79.100000000000009</v>
-      </c>
-      <c r="S8" s="25">
+      <c r="S9" s="13">
+        <f>_xll.dnetStandardBarrierNGreeks("price",G9,H9,I9,K9,L9*H9,P9,$C$3,Q9,R9,$C$4)*E9</f>
+        <v>-1.2356357988598674</v>
+      </c>
+      <c r="T9" s="15">
         <v>80</v>
       </c>
-      <c r="T8" s="24">
-        <f>S8/10000*O8*G8</f>
-        <v>2.6005479452054794</v>
-      </c>
-      <c r="U8" s="24">
-        <f>IF(R8&lt;=0,ABS(R8)+T8,R8-T8)</f>
-        <v>81.700547945205486</v>
-      </c>
-      <c r="V8" s="26">
-        <f>U8/G8</f>
-        <v>2.0657534246575345E-2</v>
-      </c>
-      <c r="W8" s="24">
-        <f>_xll.dnetStandardBarrierNGreeks("delta",F8,G8,H8,J8,K8*G8,O8,$C$3,P8,Q8,$C$4)</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="24">
-        <f>_xll.dnetStandardBarrierNGreeks("vega",F8,G8,H8,J8,K8*G8,O8,$C$3,P8,Q8,$C$4)</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="24"/>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="10">
-        <f>IF(C9="中金买入",1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="11">
-        <v>100</v>
-      </c>
-      <c r="H9" s="10">
-        <v>100</v>
-      </c>
-      <c r="I9" s="10">
-        <v>108</v>
-      </c>
-      <c r="J9" s="10">
-        <f>_xll.dnetDiscreteAdjustedBarrier($G9,$I9,$Q9,1/365)</f>
-        <v>108.99256080920966</v>
-      </c>
-      <c r="K9" s="29">
-        <v>0.02</v>
-      </c>
-      <c r="L9" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43068</v>
-      </c>
-      <c r="M9" s="8">
-        <f ca="1">L9+N9</f>
-        <v>43098</v>
-      </c>
-      <c r="N9" s="10">
-        <v>30</v>
-      </c>
-      <c r="O9" s="12">
-        <f>N9/365</f>
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="P9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="R9" s="13">
-        <f>_xll.dnetStandardBarrierNGreeks("price",F9,G9,H9,J9,K9*G9,O9,$C$3,P9,Q9,$C$4)*D9</f>
-        <v>-1.2356357988598674</v>
-      </c>
-      <c r="S9" s="15">
-        <v>80</v>
-      </c>
-      <c r="T9" s="13">
-        <f>S9/10000*O9*G9</f>
+      <c r="U9" s="13">
+        <f>T9/10000*P9*H9</f>
         <v>6.5753424657534254E-2</v>
       </c>
-      <c r="U9" s="13">
-        <f>IF(R9&lt;=0,ABS(R9)+T9,R9-T9)</f>
+      <c r="V9" s="13">
+        <f>IF(S9&lt;=0,ABS(S9)+U9,S9-U9)</f>
         <v>1.3013892235174016</v>
       </c>
-      <c r="V9" s="14">
-        <f>U9/G9</f>
+      <c r="W9" s="14">
+        <f>V9/H9</f>
         <v>1.3013892235174017E-2</v>
       </c>
-      <c r="W9" s="13">
-        <f>_xll.dnetStandardBarrierNGreeks("delta",F9,G9,H9,J9,K9*G9,O9,$C$3,P9,Q9,$C$4)</f>
+      <c r="X9" s="13">
+        <f>_xll.dnetStandardBarrierNGreeks("delta",G9,H9,I9,K9,L9*H9,P9,$C$3,Q9,R9,$C$4)</f>
         <v>0.10721004531234479</v>
       </c>
-      <c r="X9" s="13">
-        <f>_xll.dnetStandardBarrierNGreeks("vega",F9,G9,H9,J9,K9*G9,O9,$C$3,P9,Q9,$C$4)</f>
+      <c r="Y9" s="13">
+        <f>_xll.dnetStandardBarrierNGreeks("vega",G9,H9,I9,K9,L9*H9,P9,$C$3,Q9,R9,$C$4)</f>
         <v>-9.0312398485122847E-3</v>
       </c>
-      <c r="Y9" s="13"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="B10" s="10"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="8"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="12"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="10"/>
       <c r="P10" s="12"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="13"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="15"/>
       <c r="U10" s="13"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="14"/>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="B11" s="10"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="8"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="12"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="10"/>
       <c r="P11" s="12"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="13"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="15"/>
       <c r="U11" s="13"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="14"/>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="B12" s="10"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="8"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="12"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="10"/>
       <c r="P12" s="12"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="13"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="15"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="14"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="B13" s="10"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="8"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="12"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="10"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="13"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="15"/>
       <c r="U13" s="13"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="14"/>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="B14" s="10"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="8"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="12"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="10"/>
       <c r="P14" s="12"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="13"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="15"/>
       <c r="U14" s="13"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="14"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="B15" s="10"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="8"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="12"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="10"/>
       <c r="P15" s="12"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="13"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="15"/>
       <c r="U15" s="13"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="14"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
     </row>
     <row r="16" spans="1:25">
-      <c r="B16" s="10"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="8"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="12"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="10"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="13"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="15"/>
       <c r="U16" s="13"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="14"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
     </row>
     <row r="17" spans="2:25">
-      <c r="B17" s="10"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="8"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="12"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="10"/>
       <c r="P17" s="12"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="13"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="15"/>
       <c r="U17" s="13"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="14"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
     </row>
     <row r="18" spans="2:25">
-      <c r="B18" s="10"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="8"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="12"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="10"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="13"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="15"/>
       <c r="U18" s="13"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="14"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
     </row>
     <row r="19" spans="2:25">
-      <c r="B19" s="10"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="8"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="12"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="10"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="13"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="15"/>
       <c r="U19" s="13"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="14"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
     </row>
     <row r="20" spans="2:25">
-      <c r="B20" s="10"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="8"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="12"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="10"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="13"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="15"/>
       <c r="U20" s="13"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="14"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
     </row>
     <row r="21" spans="2:25">
-      <c r="B21" s="10"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="8"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="12"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="10"/>
       <c r="P21" s="12"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="13"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="15"/>
       <c r="U21" s="13"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="14"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
     </row>
     <row r="22" spans="2:25">
-      <c r="B22" s="10"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="8"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="12"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="10"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="13"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="15"/>
       <c r="U22" s="13"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="14"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
     </row>
     <row r="23" spans="2:25">
-      <c r="B23" s="10"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="8"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="12"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="10"/>
       <c r="P23" s="12"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="13"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="15"/>
       <c r="U23" s="13"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="14"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
     </row>
     <row r="24" spans="2:25">
-      <c r="B24" s="10"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="8"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="12"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="10"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="13"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="15"/>
       <c r="U24" s="13"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="14"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
     </row>
     <row r="25" spans="2:25">
-      <c r="B25" s="10"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="8"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="12"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="10"/>
       <c r="P25" s="12"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="13"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="15"/>
       <c r="U25" s="13"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="14"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
     </row>
     <row r="26" spans="2:25">
-      <c r="B26" s="10"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="8"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="12"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="10"/>
       <c r="P26" s="12"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="13"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="15"/>
       <c r="U26" s="13"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="14"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
     </row>
     <row r="27" spans="2:25">
-      <c r="B27" s="10"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="8"/>
+      <c r="L27" s="10"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="12"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="10"/>
       <c r="P27" s="12"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="13"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="15"/>
       <c r="U27" s="13"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="14"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
     </row>
     <row r="28" spans="2:25">
-      <c r="B28" s="10"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="8"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="12"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="10"/>
       <c r="P28" s="12"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="13"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="15"/>
       <c r="U28" s="13"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="14"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
     </row>
     <row r="29" spans="2:25">
-      <c r="B29" s="10"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="8"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="12"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="10"/>
       <c r="P29" s="12"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="13"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="15"/>
       <c r="U29" s="13"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="14"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
     </row>
     <row r="30" spans="2:25">
-      <c r="B30" s="10"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="8"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="8"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="12"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="10"/>
       <c r="P30" s="12"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="13"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="15"/>
       <c r="U30" s="13"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="14"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
     </row>
     <row r="31" spans="2:25">
-      <c r="B31" s="10"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="8"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="12"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="10"/>
       <c r="P31" s="12"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="13"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="15"/>
       <c r="U31" s="13"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="14"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
     </row>
     <row r="32" spans="2:25">
-      <c r="B32" s="10"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="8"/>
+      <c r="L32" s="10"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="12"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="10"/>
       <c r="P32" s="12"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="13"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="15"/>
       <c r="U32" s="13"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="14"/>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
     </row>
     <row r="33" spans="2:25">
-      <c r="B33" s="10"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="8"/>
+      <c r="L33" s="10"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="12"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="10"/>
       <c r="P33" s="12"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="13"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="15"/>
       <c r="U33" s="13"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="14"/>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
     </row>
     <row r="34" spans="2:25">
-      <c r="B34" s="10"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="8"/>
+      <c r="L34" s="10"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="12"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="10"/>
       <c r="P34" s="12"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="13"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="15"/>
       <c r="U34" s="13"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="14"/>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
     </row>
     <row r="35" spans="2:25">
-      <c r="B35" s="10"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="8"/>
+      <c r="L35" s="10"/>
       <c r="M35" s="8"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="12"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="10"/>
       <c r="P35" s="12"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="13"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="15"/>
       <c r="U35" s="13"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="14"/>
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
     </row>
     <row r="36" spans="2:25">
-      <c r="B36" s="10"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
-      <c r="L36" s="8"/>
+      <c r="L36" s="10"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="12"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="10"/>
       <c r="P36" s="12"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="13"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="15"/>
       <c r="U36" s="13"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="14"/>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
     </row>
     <row r="37" spans="2:25">
-      <c r="B37" s="10"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
-      <c r="L37" s="8"/>
+      <c r="L37" s="10"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="12"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="10"/>
       <c r="P37" s="12"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="13"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="15"/>
       <c r="U37" s="13"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="14"/>
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
     </row>
     <row r="38" spans="2:25">
-      <c r="B38" s="10"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
-      <c r="L38" s="8"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="12"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="10"/>
       <c r="P38" s="12"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="13"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="15"/>
       <c r="U38" s="13"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="14"/>
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
     </row>
     <row r="39" spans="2:25">
-      <c r="B39" s="10"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
-      <c r="L39" s="8"/>
+      <c r="L39" s="10"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="12"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="10"/>
       <c r="P39" s="12"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="13"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="15"/>
       <c r="U39" s="13"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="14"/>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
     </row>
@@ -5568,19 +5570,19 @@
           <x14:formula1>
             <xm:f>configs!$C$3:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F8:F39</xm:sqref>
+          <xm:sqref>G8:G39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C39</xm:sqref>
+          <xm:sqref>D8:D39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:B39</xm:sqref>
+          <xm:sqref>C8:C39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5607,40 +5609,40 @@
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" s="32"/>
       <c r="E1" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="D2" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="E2" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="F2" s="36" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="38">
         <v>0.20750000000000002</v>
@@ -5657,10 +5659,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="38">
         <v>0.13750000000000001</v>
@@ -5677,10 +5679,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -5689,10 +5691,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="38">
         <v>0.29000000000000004</v>
@@ -5709,10 +5711,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="38">
         <v>0.155</v>
@@ -5729,10 +5731,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="38">
         <v>0.35250000000000004</v>
@@ -5749,10 +5751,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="38">
         <v>0.33250000000000002</v>
@@ -5769,10 +5771,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="38">
         <v>0.27500000000000002</v>
@@ -5789,10 +5791,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="38">
         <v>0.33750000000000002</v>
@@ -5809,10 +5811,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="38">
         <v>0.255</v>
@@ -5829,10 +5831,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="38">
         <v>9.2499999999999999E-2</v>
@@ -5849,10 +5851,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="38">
         <v>0.12</v>
@@ -5869,10 +5871,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
@@ -5881,10 +5883,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="38">
         <v>0.14000000000000001</v>
@@ -5901,10 +5903,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17" s="38">
         <v>0.14749999999999996</v>
@@ -5921,10 +5923,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
@@ -5933,10 +5935,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -5945,10 +5947,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20" s="38">
         <v>9.5000000000000001E-2</v>
@@ -5965,10 +5967,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -5977,10 +5979,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="38">
         <v>0.12000000000000001</v>
@@ -5997,10 +5999,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C23" s="38">
         <v>0.12000000000000001</v>
@@ -6017,10 +6019,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" s="38">
         <v>8.249999999999999E-2</v>
@@ -6037,10 +6039,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C25" s="38">
         <v>9.5000000000000001E-2</v>
@@ -6057,10 +6059,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" s="38">
         <v>0.2</v>
@@ -6077,10 +6079,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -6089,10 +6091,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -6101,10 +6103,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C29" s="40">
         <v>0.23250000000000001</v>
@@ -6121,10 +6123,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C30" s="40">
         <v>0.19</v>
@@ -6141,10 +6143,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -6153,10 +6155,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C32" s="38">
         <v>0.29000000000000004</v>
@@ -6173,10 +6175,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C33" s="38">
         <v>0.12499999999999999</v>
@@ -6238,7 +6240,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6248,7 +6250,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -6257,10 +6259,10 @@
         <v>24</v>
       </c>
       <c r="K1" s="77" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L1" s="77" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M1" s="77"/>
       <c r="N1" s="77"/>
@@ -6278,10 +6280,10 @@
         <v>25</v>
       </c>
       <c r="K2" s="77" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L2" s="77" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M2" s="77"/>
       <c r="N2" s="77"/>
@@ -6293,7 +6295,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -6301,7 +6303,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -6311,26 +6313,28 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2"/>
@@ -6421,7 +6425,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6444,7 +6448,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
       <c r="B1" s="108" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="108"/>
     </row>
@@ -6497,916 +6501,916 @@
     </row>
     <row r="7" spans="1:21" ht="12.75" thickTop="1" thickBot="1">
       <c r="B7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="I7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="J7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="K7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="L7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="M7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="N7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="O7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="P7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="Q7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="R7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="S7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="18" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="8" spans="1:21" ht="12" thickTop="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="E8" s="19">
+        <f>IF(D8="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="20">
+        <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
+        <v>4008</v>
+      </c>
+      <c r="I8" s="19">
+        <v>3800</v>
+      </c>
+      <c r="J8" s="21">
+        <f ca="1">TODAY()</f>
+        <v>43069</v>
+      </c>
+      <c r="K8" s="21">
+        <f ca="1">J8+L8</f>
+        <v>43099</v>
+      </c>
+      <c r="L8" s="19">
+        <v>30</v>
+      </c>
+      <c r="M8" s="22">
+        <f>L8/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="N8" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="O8" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
+        <v>264.83249929543081</v>
+      </c>
+      <c r="P8" s="25">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="24">
+        <f>P8/10000*M8*H8*(-E8)</f>
+        <v>2.6353972602739728</v>
+      </c>
+      <c r="R8" s="24">
+        <f>O8+Q8</f>
+        <v>267.46789655570478</v>
+      </c>
+      <c r="S8" s="26">
+        <f>R8/H8</f>
+        <v>6.6733507124676836E-2</v>
+      </c>
+      <c r="T8" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
+        <v>0.74864779203380749</v>
+      </c>
+      <c r="U8" s="24">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
+        <v>3.6534310991760321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="27"/>
+      <c r="B9" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="19">
-        <f>IF(C8="中金买入",1,-1)</f>
+      <c r="D9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="10">
+        <f>IF(D9="中金买入",1,-1)</f>
         <v>-1</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="F9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="20">
-        <f>RTD("wdf.rtq",,E8,"LastPrice")</f>
-        <v>3955</v>
-      </c>
-      <c r="H8" s="19">
-        <v>3800</v>
-      </c>
-      <c r="I8" s="21">
+      <c r="H9" s="11">
+        <v>100</v>
+      </c>
+      <c r="I9" s="10">
+        <v>100</v>
+      </c>
+      <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43068</v>
-      </c>
-      <c r="J8" s="21">
-        <f ca="1">I8+K8</f>
-        <v>43098</v>
-      </c>
-      <c r="K8" s="19">
+        <v>43069</v>
+      </c>
+      <c r="K9" s="8">
+        <f ca="1">J9+L9</f>
+        <v>43099</v>
+      </c>
+      <c r="L9" s="10">
         <v>30</v>
       </c>
-      <c r="L8" s="22">
-        <f>K8/365</f>
+      <c r="M9" s="12">
+        <f>L9/365</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="M8" s="23">
+      <c r="N9" s="9">
         <v>0.3</v>
       </c>
-      <c r="N8" s="24">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$F8,$G8,$H8,$L8,$C$3,$C$4,$M8)</f>
-        <v>226.49912883627985</v>
-      </c>
-      <c r="O8" s="25">
+      <c r="O9" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9)</f>
+        <v>3.4671141943048909</v>
+      </c>
+      <c r="P9" s="15">
         <v>80</v>
       </c>
-      <c r="P8" s="24">
-        <f>O8/10000*L8*G8*(-D8)</f>
-        <v>2.6005479452054794</v>
-      </c>
-      <c r="Q8" s="24">
-        <f>N8+P8</f>
-        <v>229.09967678148533</v>
-      </c>
-      <c r="R8" s="26">
-        <f>Q8/G8</f>
-        <v>5.7926593370792749E-2</v>
-      </c>
-      <c r="S8" s="24">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$F8,$G8,$H8,$L8,$C$3,$C$4,$M8,$C$4)</f>
-        <v>0.69698797763066977</v>
-      </c>
-      <c r="T8" s="24">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$F8,$G8,$H8,$L8,$C$3,$C$4,$M8)</f>
-        <v>3.9530533333650055</v>
-      </c>
-      <c r="U8" s="24"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="27" t="s">
+      <c r="Q9" s="13">
+        <f>P9/10000*M9*H9*(-E9)</f>
+        <v>6.5753424657534254E-2</v>
+      </c>
+      <c r="R9" s="13">
+        <f>O9+Q9</f>
+        <v>3.5328676189624253</v>
+      </c>
+      <c r="S9" s="14">
+        <f>R9/H9</f>
+        <v>3.532867618962425E-2</v>
+      </c>
+      <c r="T9" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9,$C$4)</f>
+        <v>0.52053074724724979</v>
+      </c>
+      <c r="U9" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9)</f>
+        <v>0.11412144299254479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="B10" s="13"/>
+      <c r="C10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="10">
+        <f>IF(D10="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="11">
+        <v>100</v>
+      </c>
+      <c r="I10" s="10">
+        <v>100</v>
+      </c>
+      <c r="J10" s="8">
+        <f ca="1">TODAY()</f>
+        <v>43069</v>
+      </c>
+      <c r="K10" s="8">
+        <f ca="1">J10+L10</f>
+        <v>43099</v>
+      </c>
+      <c r="L10" s="10">
         <v>30</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="10">
-        <f>IF(C9="中金买入",1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="11">
-        <v>100</v>
-      </c>
-      <c r="H9" s="10">
-        <v>100</v>
-      </c>
-      <c r="I9" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43068</v>
-      </c>
-      <c r="J9" s="8">
-        <f ca="1">I9+K9</f>
-        <v>43098</v>
-      </c>
-      <c r="K9" s="10">
-        <v>30</v>
-      </c>
-      <c r="L9" s="12">
-        <f>K9/365</f>
+      <c r="M10" s="12">
+        <f>L10/365</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="M9" s="9">
+      <c r="N10" s="9">
         <v>0.3</v>
       </c>
-      <c r="N9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$F9,$G9,$H9,$L9,$C$3,$C$4,$M9)</f>
+      <c r="O10" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10)</f>
         <v>3.4671141943048909</v>
       </c>
-      <c r="O9" s="15">
+      <c r="P10" s="15">
         <v>80</v>
       </c>
-      <c r="P9" s="13">
-        <f>O9/10000*L9*G9*(-D9)</f>
+      <c r="Q10" s="13">
+        <f>P10/10000*M10*H10*(-E10)</f>
         <v>6.5753424657534254E-2</v>
       </c>
-      <c r="Q9" s="13">
-        <f>N9+P9</f>
+      <c r="R10" s="13">
+        <f>O10+Q10</f>
         <v>3.5328676189624253</v>
       </c>
-      <c r="R9" s="14">
-        <f>Q9/G9</f>
+      <c r="S10" s="14">
+        <f>R10/H10</f>
         <v>3.532867618962425E-2</v>
       </c>
-      <c r="S9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$F9,$G9,$H9,$L9,$C$3,$C$4,$M9,$C$4)</f>
+      <c r="T10" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10,$C$4)</f>
         <v>0.52053074724724979</v>
       </c>
-      <c r="T9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$F9,$G9,$H9,$L9,$C$3,$C$4,$M9)</f>
+      <c r="U10" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10)</f>
         <v>0.11412144299254479</v>
       </c>
-      <c r="U9" s="13"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="B10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="10">
-        <f>IF(C10="中金买入",1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="11">
-        <v>100</v>
-      </c>
-      <c r="H10" s="10">
-        <v>100</v>
-      </c>
-      <c r="I10" s="8">
-        <f ca="1">TODAY()</f>
-        <v>43068</v>
-      </c>
-      <c r="J10" s="8">
-        <f ca="1">I10+K10</f>
-        <v>43098</v>
-      </c>
-      <c r="K10" s="10">
-        <v>30</v>
-      </c>
-      <c r="L10" s="12">
-        <f>K10/365</f>
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="N10" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$F10,$G10,$H10,$L10,$C$3,$C$4,$M10)</f>
-        <v>3.4671141943048909</v>
-      </c>
-      <c r="O10" s="15">
-        <v>80</v>
-      </c>
-      <c r="P10" s="13">
-        <f>O10/10000*L10*G10*(-D10)</f>
-        <v>6.5753424657534254E-2</v>
-      </c>
-      <c r="Q10" s="13">
-        <f>N10+P10</f>
-        <v>3.5328676189624253</v>
-      </c>
-      <c r="R10" s="14">
-        <f>Q10/G10</f>
-        <v>3.532867618962425E-2</v>
-      </c>
-      <c r="S10" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$F10,$G10,$H10,$L10,$C$3,$C$4,$M10,$C$4)</f>
-        <v>0.52053074724724979</v>
-      </c>
-      <c r="T10" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$F10,$G10,$H10,$L10,$C$3,$C$4,$M10)</f>
-        <v>0.11412144299254479</v>
-      </c>
-      <c r="U10" s="13"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="B11" s="10"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="13"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="13"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="B12" s="10"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="8"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="13"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="15"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="B13" s="10"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="8"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="13"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="15"/>
       <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="14"/>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="B14" s="10"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="8"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="13"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="B15" s="10"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="13"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="13"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="B16" s="10"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="8"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="13"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="15"/>
       <c r="Q16" s="13"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="10"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="13"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="15"/>
       <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="10"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="13"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="15"/>
       <c r="Q18" s="13"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="10"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="8"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="13"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="15"/>
       <c r="Q19" s="13"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="14"/>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="10"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="8"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="13"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="15"/>
       <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="14"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="10"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="8"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="13"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="15"/>
       <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="14"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="10"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="8"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="13"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="15"/>
       <c r="Q22" s="13"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="14"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
     </row>
     <row r="23" spans="2:21">
-      <c r="B23" s="10"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="8"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="13"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="15"/>
       <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="14"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="10"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="8"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="13"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="15"/>
       <c r="Q24" s="13"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="14"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="10"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="8"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="13"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="15"/>
       <c r="Q25" s="13"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="14"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="10"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="8"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="13"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="15"/>
       <c r="Q26" s="13"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="14"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="10"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="8"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="10"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="13"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="15"/>
       <c r="Q27" s="13"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="14"/>
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="10"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="8"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="13"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="15"/>
       <c r="Q28" s="13"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="14"/>
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
     </row>
     <row r="29" spans="2:21">
-      <c r="B29" s="10"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="8"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="13"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="15"/>
       <c r="Q29" s="13"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="14"/>
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
     </row>
     <row r="30" spans="2:21">
-      <c r="B30" s="10"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="8"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="13"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="15"/>
       <c r="Q30" s="13"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="14"/>
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
     </row>
     <row r="31" spans="2:21">
-      <c r="B31" s="10"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="8"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="13"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="15"/>
       <c r="Q31" s="13"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="14"/>
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
     </row>
     <row r="32" spans="2:21">
-      <c r="B32" s="10"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="8"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="13"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="15"/>
       <c r="Q32" s="13"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="14"/>
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
     </row>
     <row r="33" spans="2:21">
-      <c r="B33" s="10"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="8"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="13"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="15"/>
       <c r="Q33" s="13"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="14"/>
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
     </row>
     <row r="34" spans="2:21">
-      <c r="B34" s="10"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="8"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="10"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="13"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="15"/>
       <c r="Q34" s="13"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="14"/>
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
     </row>
     <row r="35" spans="2:21">
-      <c r="B35" s="10"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="8"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="13"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="15"/>
       <c r="Q35" s="13"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="14"/>
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
     </row>
     <row r="36" spans="2:21">
-      <c r="B36" s="10"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="8"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="10"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="13"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="15"/>
       <c r="Q36" s="13"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="14"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
     </row>
     <row r="37" spans="2:21">
-      <c r="B37" s="10"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="8"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="13"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="15"/>
       <c r="Q37" s="13"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="14"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
     </row>
     <row r="38" spans="2:21">
-      <c r="B38" s="10"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="8"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="10"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="13"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="15"/>
       <c r="Q38" s="13"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="14"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
     </row>
     <row r="39" spans="2:21">
-      <c r="B39" s="10"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="8"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="10"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="13"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="15"/>
       <c r="Q39" s="13"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="14"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
     </row>
@@ -7421,21 +7425,21 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>configs!$A$1:$A$36</xm:f>
-          </x14:formula1>
-          <xm:sqref>B8:B42</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>F8:F39</xm:sqref>
+          <xm:sqref>G8:G39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C39</xm:sqref>
+          <xm:sqref>D8:D39</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>configs!$A$1:$A$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>B40:B42 C8:C39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
